--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1713041.26697397</v>
+        <v>-1715900.075128219</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>9.792026505867568</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>255.0853779233022</v>
       </c>
       <c r="E2" t="n">
         <v>255.0853779233022</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H2" t="n">
-        <v>255.0853779233022</v>
+        <v>199.0248163823303</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>148.6166747892905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,22 +735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>45.87090750370562</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>98.92088629876318</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>17.69584188176898</v>
+        <v>4.254030753560115</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>176.4679307271549</v>
+        <v>255.0853779233022</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>255.0853779233022</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015061</v>
+        <v>225.1346772411287</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>59.80127191868286</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1029,10 +1029,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>193.7369777182762</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>107.297782492468</v>
       </c>
     </row>
     <row r="7">
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>49.87925249820233</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>255.9685948374324</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1136,16 +1136,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>70.00356949144769</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.6578039426845</v>
+        <v>11.65780394268447</v>
       </c>
       <c r="H8" t="n">
         <v>302.1461261669077</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>125.9611458040279</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>183.6465966505063</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>135.3933057711207</v>
       </c>
       <c r="H9" t="n">
-        <v>93.40050789710146</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>22.25119676410775</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,10 +1260,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>135.4588498516408</v>
+        <v>116.8709678830905</v>
       </c>
       <c r="T9" t="n">
-        <v>58.06442158553034</v>
+        <v>192.3040082153011</v>
       </c>
       <c r="U9" t="n">
         <v>225.8130786999163</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>50.6548114356662</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>100.2507306556408</v>
       </c>
       <c r="H10" t="n">
         <v>147.6906097669175</v>
@@ -1342,22 +1342,22 @@
         <v>195.5231514382189</v>
       </c>
       <c r="T10" t="n">
-        <v>220.9597157186237</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2298479899846</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717414</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>126.9263824507502</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>45.16086499484926</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,19 +2008,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>215.0524136249019</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>21.6971857188523</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D25" t="n">
-        <v>27.0291980517616</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2564,13 +2564,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="27">
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="G28" t="n">
-        <v>104.1233804225864</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428212</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3317,7 +3317,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,7 +3913,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
         <v>56.98118882652581</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>655.4237966384044</v>
+        <v>756.7588725738472</v>
       </c>
       <c r="C2" t="n">
-        <v>655.4237966384044</v>
+        <v>756.7588725738472</v>
       </c>
       <c r="D2" t="n">
-        <v>655.4237966384044</v>
+        <v>499.0968746715216</v>
       </c>
       <c r="E2" t="n">
-        <v>397.7617987360789</v>
+        <v>241.4348767691961</v>
       </c>
       <c r="F2" t="n">
-        <v>397.7617987360789</v>
+        <v>234.4893760199926</v>
       </c>
       <c r="G2" t="n">
-        <v>397.7617987360789</v>
+        <v>221.4419982968241</v>
       </c>
       <c r="H2" t="n">
-        <v>140.0998008337534</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="I2" t="n">
         <v>20.40683023386418</v>
       </c>
       <c r="J2" t="n">
-        <v>101.5286049718923</v>
+        <v>41.64108022724748</v>
       </c>
       <c r="K2" t="n">
-        <v>184.0917595464847</v>
+        <v>124.2042348018398</v>
       </c>
       <c r="L2" t="n">
         <v>323.4204153877379</v>
@@ -4358,22 +4358,22 @@
         <v>1020.341511693209</v>
       </c>
       <c r="T2" t="n">
-        <v>805.54164996092</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="U2" t="n">
-        <v>805.54164996092</v>
+        <v>766.6498084383599</v>
       </c>
       <c r="V2" t="n">
-        <v>805.54164996092</v>
+        <v>766.6498084383599</v>
       </c>
       <c r="W2" t="n">
-        <v>805.54164996092</v>
+        <v>766.6498084383599</v>
       </c>
       <c r="X2" t="n">
-        <v>805.54164996092</v>
+        <v>766.6498084383599</v>
       </c>
       <c r="Y2" t="n">
-        <v>655.4237966384044</v>
+        <v>766.6498084383599</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>390.1285191799855</v>
+        <v>120.3269174043321</v>
       </c>
       <c r="C3" t="n">
-        <v>215.6754898988585</v>
+        <v>120.3269174043321</v>
       </c>
       <c r="D3" t="n">
-        <v>66.74108023760724</v>
+        <v>120.3269174043321</v>
       </c>
       <c r="E3" t="n">
-        <v>20.40683023386418</v>
+        <v>120.3269174043321</v>
       </c>
       <c r="F3" t="n">
-        <v>20.40683023386418</v>
+        <v>120.3269174043321</v>
       </c>
       <c r="G3" t="n">
         <v>20.40683023386418</v>
@@ -4431,28 +4431,28 @@
         <v>1020.341511693209</v>
       </c>
       <c r="R3" t="n">
-        <v>1020.341511693209</v>
+        <v>999.2296120953957</v>
       </c>
       <c r="S3" t="n">
-        <v>1020.341511693209</v>
+        <v>999.2296120953957</v>
       </c>
       <c r="T3" t="n">
-        <v>1020.341511693209</v>
+        <v>999.2296120953957</v>
       </c>
       <c r="U3" t="n">
-        <v>1020.341511693209</v>
+        <v>771.0908246065615</v>
       </c>
       <c r="V3" t="n">
-        <v>1020.341511693209</v>
+        <v>535.9387163748188</v>
       </c>
       <c r="W3" t="n">
-        <v>766.1041549650074</v>
+        <v>535.9387163748188</v>
       </c>
       <c r="X3" t="n">
-        <v>766.1041549650074</v>
+        <v>328.087216169286</v>
       </c>
       <c r="Y3" t="n">
-        <v>558.3438562000536</v>
+        <v>120.3269174043321</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>485.9839186470423</v>
+        <v>24.70383099503601</v>
       </c>
       <c r="C4" t="n">
-        <v>317.0477357191354</v>
+        <v>24.70383099503601</v>
       </c>
       <c r="D4" t="n">
-        <v>317.0477357191354</v>
+        <v>24.70383099503601</v>
       </c>
       <c r="E4" t="n">
-        <v>317.0477357191354</v>
+        <v>24.70383099503601</v>
       </c>
       <c r="F4" t="n">
-        <v>317.0477357191354</v>
+        <v>24.70383099503601</v>
       </c>
       <c r="G4" t="n">
-        <v>317.0477357191354</v>
+        <v>24.70383099503601</v>
       </c>
       <c r="H4" t="n">
-        <v>162.7930926189005</v>
+        <v>24.70383099503601</v>
       </c>
       <c r="I4" t="n">
-        <v>38.2814179932268</v>
+        <v>24.70383099503601</v>
       </c>
       <c r="J4" t="n">
         <v>20.40683023386418</v>
@@ -4510,28 +4510,28 @@
         <v>1020.341511693209</v>
       </c>
       <c r="R4" t="n">
-        <v>889.8635504126116</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="S4" t="n">
-        <v>889.8635504126116</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="T4" t="n">
-        <v>664.2343537249766</v>
+        <v>794.7123150055739</v>
       </c>
       <c r="U4" t="n">
-        <v>485.9839186470423</v>
+        <v>537.0503171032484</v>
       </c>
       <c r="V4" t="n">
-        <v>485.9839186470423</v>
+        <v>282.3658288973616</v>
       </c>
       <c r="W4" t="n">
-        <v>485.9839186470423</v>
+        <v>24.70383099503601</v>
       </c>
       <c r="X4" t="n">
-        <v>485.9839186470423</v>
+        <v>24.70383099503601</v>
       </c>
       <c r="Y4" t="n">
-        <v>485.9839186470423</v>
+        <v>24.70383099503601</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4541,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>573.7617370571243</v>
+        <v>268.4151888127974</v>
       </c>
       <c r="C5" t="n">
-        <v>307.3840804899464</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="D5" t="n">
         <v>41.00642392276842</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>840.1393936243022</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>840.1393936243022</v>
+        <v>801.1705019471533</v>
       </c>
       <c r="V5" t="n">
-        <v>840.1393936243022</v>
+        <v>534.7928453799753</v>
       </c>
       <c r="W5" t="n">
-        <v>840.1393936243022</v>
+        <v>534.7928453799753</v>
       </c>
       <c r="X5" t="n">
-        <v>573.7617370571243</v>
+        <v>534.7928453799753</v>
       </c>
       <c r="Y5" t="n">
-        <v>573.7617370571243</v>
+        <v>534.7928453799753</v>
       </c>
     </row>
     <row r="6">
@@ -4644,22 +4644,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>117.4455628004801</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699343</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>338.874007230231</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4677,19 +4677,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006025</v>
+        <v>826.7196740428381</v>
       </c>
       <c r="V6" t="n">
-        <v>859.1616031188769</v>
+        <v>591.5675658110954</v>
       </c>
       <c r="W6" t="n">
-        <v>604.9242463906753</v>
+        <v>337.3302090828938</v>
       </c>
       <c r="X6" t="n">
-        <v>397.0727461851425</v>
+        <v>129.4787088773609</v>
       </c>
       <c r="Y6" t="n">
-        <v>189.3124474201885</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>313.6273447026937</v>
+        <v>390.5330160718806</v>
       </c>
       <c r="C7" t="n">
-        <v>313.6273447026937</v>
+        <v>221.5968331439737</v>
       </c>
       <c r="D7" t="n">
-        <v>313.6273447026937</v>
+        <v>71.480193731638</v>
       </c>
       <c r="E7" t="n">
-        <v>313.6273447026937</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F7" t="n">
-        <v>313.6273447026937</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>313.6273447026937</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>159.7059716361716</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
@@ -4735,10 +4735,10 @@
         <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4756,19 +4756,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>796.3013838065979</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>541.616895600711</v>
+        <v>800.1710318001377</v>
       </c>
       <c r="W7" t="n">
-        <v>541.616895600711</v>
+        <v>800.1710318001377</v>
       </c>
       <c r="X7" t="n">
-        <v>313.6273447026937</v>
+        <v>572.1814809021204</v>
       </c>
       <c r="Y7" t="n">
-        <v>313.6273447026937</v>
+        <v>572.1814809021204</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>840.2865622214617</v>
+        <v>1134.787085323428</v>
       </c>
       <c r="C8" t="n">
-        <v>840.2865622214617</v>
+        <v>1134.787085323428</v>
       </c>
       <c r="D8" t="n">
-        <v>840.2865622214617</v>
+        <v>776.5213867166779</v>
       </c>
       <c r="E8" t="n">
-        <v>840.2865622214617</v>
+        <v>776.5213867166779</v>
       </c>
       <c r="F8" t="n">
-        <v>769.5758859674742</v>
+        <v>365.5354819270702</v>
       </c>
       <c r="G8" t="n">
-        <v>353.7599223890049</v>
+        <v>353.7599223890051</v>
       </c>
       <c r="H8" t="n">
-        <v>48.56181514970419</v>
+        <v>48.56181514970444</v>
       </c>
       <c r="I8" t="n">
-        <v>48.56181514970419</v>
+        <v>48.56181514970444</v>
       </c>
       <c r="J8" t="n">
-        <v>175.5919586551138</v>
+        <v>175.5919586551154</v>
       </c>
       <c r="K8" t="n">
-        <v>416.7157328480263</v>
+        <v>416.7157328480293</v>
       </c>
       <c r="L8" t="n">
-        <v>752.7528582148877</v>
+        <v>752.7528582148925</v>
       </c>
       <c r="M8" t="n">
-        <v>1158.328345051914</v>
+        <v>1158.32834505192</v>
       </c>
       <c r="N8" t="n">
-        <v>1575.080275660913</v>
+        <v>1575.080275660921</v>
       </c>
       <c r="O8" t="n">
-        <v>1955.272044794122</v>
+        <v>1955.272044794131</v>
       </c>
       <c r="P8" t="n">
-        <v>2245.25592284291</v>
+        <v>2245.25592284292</v>
       </c>
       <c r="Q8" t="n">
-        <v>2414.848991985957</v>
+        <v>2414.848991985968</v>
       </c>
       <c r="R8" t="n">
-        <v>2428.090757485209</v>
+        <v>2428.090757485222</v>
       </c>
       <c r="S8" t="n">
-        <v>2300.85727687508</v>
+        <v>2428.090757485222</v>
       </c>
       <c r="T8" t="n">
-        <v>2300.85727687508</v>
+        <v>2428.090757485222</v>
       </c>
       <c r="U8" t="n">
-        <v>2300.85727687508</v>
+        <v>2428.090757485222</v>
       </c>
       <c r="V8" t="n">
-        <v>1969.794389531509</v>
+        <v>2097.027870141651</v>
       </c>
       <c r="W8" t="n">
-        <v>1617.025734261395</v>
+        <v>2097.027870141651</v>
       </c>
       <c r="X8" t="n">
-        <v>1617.025734261395</v>
+        <v>1911.526257363362</v>
       </c>
       <c r="Y8" t="n">
-        <v>1226.886402285583</v>
+        <v>1521.38692538755</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3020856891679</v>
+        <v>814.4821819909772</v>
       </c>
       <c r="C9" t="n">
-        <v>756.849056408041</v>
+        <v>640.0291527098502</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9146467467897</v>
+        <v>491.0947430485989</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6771917413342</v>
+        <v>331.8572880431434</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1426337682192</v>
+        <v>185.3227300700284</v>
       </c>
       <c r="G9" t="n">
-        <v>165.3817188478953</v>
+        <v>48.56181514970444</v>
       </c>
       <c r="H9" t="n">
-        <v>71.03777147708576</v>
+        <v>48.56181514970444</v>
       </c>
       <c r="I9" t="n">
-        <v>48.56181514970419</v>
+        <v>48.56181514970444</v>
       </c>
       <c r="J9" t="n">
-        <v>105.4022514209297</v>
+        <v>105.4022514209304</v>
       </c>
       <c r="K9" t="n">
-        <v>542.5270197873186</v>
+        <v>280.7064351448674</v>
       </c>
       <c r="L9" t="n">
-        <v>824.5676698392722</v>
+        <v>562.7470851968221</v>
       </c>
       <c r="M9" t="n">
-        <v>1173.052673624131</v>
+        <v>1163.699547674415</v>
       </c>
       <c r="N9" t="n">
-        <v>1545.16968342543</v>
+        <v>1745.261589809082</v>
       </c>
       <c r="O9" t="n">
-        <v>1863.364253236115</v>
+        <v>2063.456159619769</v>
       </c>
       <c r="P9" t="n">
-        <v>2299.50228817836</v>
+        <v>2299.502288178372</v>
       </c>
       <c r="Q9" t="n">
-        <v>2407.373677586848</v>
+        <v>2407.37367758686</v>
       </c>
       <c r="R9" t="n">
-        <v>2428.090757485209</v>
+        <v>2428.090757485222</v>
       </c>
       <c r="S9" t="n">
-        <v>2291.263636422946</v>
+        <v>2310.039274775029</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.612705528471</v>
+        <v>2115.79280183028</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.518686639667</v>
+        <v>1887.698782941476</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.366578407924</v>
+        <v>1652.546674709733</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.129221679723</v>
+        <v>1398.309317981532</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27772147419</v>
+        <v>1190.457817775999</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.517422709236</v>
+        <v>982.6975190110452</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>693.8304059479835</v>
+        <v>467.9437964842359</v>
       </c>
       <c r="C10" t="n">
-        <v>642.6639297503409</v>
+        <v>299.007613556329</v>
       </c>
       <c r="D10" t="n">
-        <v>492.5472903380052</v>
+        <v>299.007613556329</v>
       </c>
       <c r="E10" t="n">
-        <v>344.634196755612</v>
+        <v>299.007613556329</v>
       </c>
       <c r="F10" t="n">
-        <v>197.7442492577017</v>
+        <v>299.007613556329</v>
       </c>
       <c r="G10" t="n">
-        <v>197.7442492577017</v>
+        <v>197.7442492577019</v>
       </c>
       <c r="H10" t="n">
-        <v>48.56181514970419</v>
+        <v>48.56181514970444</v>
       </c>
       <c r="I10" t="n">
-        <v>48.56181514970419</v>
+        <v>48.56181514970444</v>
       </c>
       <c r="J10" t="n">
-        <v>70.57420224187649</v>
+        <v>70.57420224187706</v>
       </c>
       <c r="K10" t="n">
-        <v>236.5841528860242</v>
+        <v>236.5841528860253</v>
       </c>
       <c r="L10" t="n">
-        <v>504.5461690879216</v>
+        <v>504.5461690879234</v>
       </c>
       <c r="M10" t="n">
-        <v>797.4636672203003</v>
+        <v>797.4636672203028</v>
       </c>
       <c r="N10" t="n">
-        <v>1088.850858371744</v>
+        <v>1088.850858371747</v>
       </c>
       <c r="O10" t="n">
-        <v>1341.977796269159</v>
+        <v>1341.977796269163</v>
       </c>
       <c r="P10" t="n">
-        <v>1535.050938441307</v>
+        <v>1535.050938441312</v>
       </c>
       <c r="Q10" t="n">
-        <v>1585.289694158857</v>
+        <v>1585.289694158861</v>
       </c>
       <c r="R10" t="n">
-        <v>1585.289694158857</v>
+        <v>1585.289694158861</v>
       </c>
       <c r="S10" t="n">
-        <v>1387.791561392979</v>
+        <v>1387.791561392984</v>
       </c>
       <c r="T10" t="n">
-        <v>1164.599929353965</v>
+        <v>1387.791561392984</v>
       </c>
       <c r="U10" t="n">
-        <v>875.4788707782233</v>
+        <v>1387.791561392984</v>
       </c>
       <c r="V10" t="n">
-        <v>875.4788707782233</v>
+        <v>1387.791561392984</v>
       </c>
       <c r="W10" t="n">
-        <v>875.4788707782233</v>
+        <v>1098.374391356023</v>
       </c>
       <c r="X10" t="n">
-        <v>875.4788707782233</v>
+        <v>870.3848404580058</v>
       </c>
       <c r="Y10" t="n">
-        <v>875.4788707782233</v>
+        <v>649.5922613144756</v>
       </c>
     </row>
     <row r="11">
@@ -5030,19 +5030,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,37 +5051,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>738.7889117913853</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N12" t="n">
-        <v>1366.386875345992</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400794</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>385.6451336181095</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570825</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.08939327981</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853369</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580269</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832671</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487575</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510516</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854714</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648827</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611867</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138493</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703191</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5258,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,16 +5288,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951537</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1144.284195611859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5598,19 +5598,19 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349513</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718132</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>806.8386896933887</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1216.476705421646</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>988.4871545236284</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>988.4871545236284</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5735,55 +5735,55 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190824</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>781.3544215660705</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1411.785016437858</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1183.79546553984</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>963.0028863963103</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5984,19 +5984,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6072,19 +6072,19 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1268.578514636218</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,61 +6212,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>741.843151638089</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>572.9069687101821</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>422.7903292978464</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E28" t="n">
-        <v>422.7903292978464</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F28" t="n">
-        <v>422.7903292978464</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>923.4916164683287</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,10 +6443,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6455,55 +6455,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,10 +6534,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6549,16 +6549,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6692,7 +6692,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
@@ -6701,7 +6701,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
@@ -6713,22 +6713,22 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319315</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656809</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150014</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942646</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580104</v>
       </c>
       <c r="G34" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384017</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382517</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547833</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="35">
@@ -6929,40 +6929,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,10 +7008,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7026,7 +7026,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319327</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7120,25 +7120,25 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332388</v>
@@ -7199,22 +7199,22 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,19 +7251,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7330,10 +7330,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311323</v>
@@ -7342,7 +7342,7 @@
         <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
         <v>2179.340199382518</v>
@@ -7354,19 +7354,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7403,43 +7403,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,10 +7482,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
@@ -7500,7 +7500,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656823</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7582,10 +7582,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
@@ -7628,67 +7628,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
         <v>411.2214559580115</v>
@@ -7801,13 +7801,13 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311325</v>
@@ -7828,25 +7828,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>60.49244923701501</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>60.49244923701499</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>99.37288961069065</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8532,22 +8532,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>255.017635043164</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>211.5606387205726</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>202.1130367511541</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>-3.940996767551754e-13</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>372.941815157613</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>99.59766369738071</v>
       </c>
       <c r="E2" t="n">
         <v>126.8449921489595</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>379.0030629740216</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>59.95550615191331</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22601,7 +22601,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>237.6212638667631</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22726,7 +22726,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>13.44181112820887</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22759,19 +22759,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>31.17527673479473</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>31.43762041328876</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>40.32043864787767</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>134.671115187088</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23896,19 +23896,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>71.47058471168907</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>264.8258126177387</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D25" t="n">
-        <v>121.5862749664508</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>41.54258064659095</v>
       </c>
       <c r="G28" t="n">
-        <v>61.40075786968248</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194174</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>101551.284536593</v>
+        <v>101551.2845365931</v>
       </c>
       <c r="C2" t="n">
         <v>123156.2654796426</v>
       </c>
       <c r="D2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796424</v>
       </c>
       <c r="E2" t="n">
         <v>121071.9899535009</v>
@@ -26369,10 +26369,10 @@
         <v>21526.81581402947</v>
       </c>
       <c r="D3" t="n">
-        <v>357247.774845691</v>
+        <v>357247.7748456941</v>
       </c>
       <c r="E3" t="n">
-        <v>539509.6920798719</v>
+        <v>539509.6920798686</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>66741.55862136457</v>
+        <v>66741.55862136446</v>
       </c>
       <c r="K3" t="n">
-        <v>2220.700322863165</v>
+        <v>2220.700322863224</v>
       </c>
       <c r="L3" t="n">
-        <v>106316.0878658429</v>
+        <v>106316.0878658437</v>
       </c>
       <c r="M3" t="n">
-        <v>140971.1139454989</v>
+        <v>140971.113945498</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169849.0966935768</v>
+        <v>169849.096693577</v>
       </c>
       <c r="C4" t="n">
         <v>246753.8673982314</v>
       </c>
       <c r="D4" t="n">
-        <v>144085.4293086932</v>
+        <v>144085.4293086923</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426732069</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731961</v>
+        <v>8117.312426731984</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.31242673194</v>
+        <v>8117.312426731982</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731988</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731998</v>
+        <v>8117.312426731996</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731936</v>
+        <v>8117.312426732036</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731996</v>
       </c>
       <c r="L4" t="n">
-        <v>16108.17168982542</v>
+        <v>16108.17168982545</v>
       </c>
       <c r="M4" t="n">
-        <v>16108.17168982539</v>
+        <v>16108.17168982544</v>
       </c>
       <c r="N4" t="n">
-        <v>16108.17168982542</v>
+        <v>16108.17168982544</v>
       </c>
       <c r="O4" t="n">
-        <v>16108.17168982541</v>
+        <v>16108.17168982545</v>
       </c>
       <c r="P4" t="n">
-        <v>16108.17168982541</v>
+        <v>16108.17168982548</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>90300.14304378151</v>
+        <v>90300.14304378176</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-787738.6447029451</v>
+        <v>-788098.7277186627</v>
       </c>
       <c r="C6" t="n">
         <v>-208172.2209368845</v>
       </c>
       <c r="D6" t="n">
-        <v>-468477.0817185232</v>
+        <v>-468477.0817185258</v>
       </c>
       <c r="E6" t="n">
-        <v>-527677.5443770102</v>
+        <v>-527712.2823024425</v>
       </c>
       <c r="F6" t="n">
-        <v>11832.14770286188</v>
+        <v>11797.4097774261</v>
       </c>
       <c r="G6" t="n">
-        <v>11832.14770286188</v>
+        <v>11797.40977742613</v>
       </c>
       <c r="H6" t="n">
-        <v>11832.14770286181</v>
+        <v>11797.40977742607</v>
       </c>
       <c r="I6" t="n">
-        <v>11832.14770286178</v>
+        <v>11797.40977742606</v>
       </c>
       <c r="J6" t="n">
-        <v>-54909.41091850272</v>
+        <v>-54944.1488439384</v>
       </c>
       <c r="K6" t="n">
-        <v>9611.447379998644</v>
+        <v>9576.709454562835</v>
       </c>
       <c r="L6" t="n">
-        <v>-102432.1099299412</v>
+        <v>-102432.109929942</v>
       </c>
       <c r="M6" t="n">
-        <v>-137087.1360095972</v>
+        <v>-137087.1360095963</v>
       </c>
       <c r="N6" t="n">
-        <v>3883.977935901654</v>
+        <v>3883.977935901668</v>
       </c>
       <c r="O6" t="n">
         <v>3883.977935901639</v>
       </c>
       <c r="P6" t="n">
-        <v>3883.977935901683</v>
+        <v>3883.977935901639</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>5.928971599392492e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>906.6772261470798</v>
+        <v>906.6772261470823</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,10 +26793,10 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>607.0226893713024</v>
+        <v>607.0226893713054</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26805,31 +26805,31 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>5.928971599392492e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>20.57891343141318</v>
       </c>
       <c r="D3" t="n">
-        <v>292.6222123776015</v>
+        <v>292.622212377604</v>
       </c>
       <c r="E3" t="n">
-        <v>461.2982741945942</v>
+        <v>461.2982741945915</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>8.628502078203894</v>
       </c>
       <c r="D4" t="n">
-        <v>343.3088093697962</v>
+        <v>343.3088093697993</v>
       </c>
       <c r="E4" t="n">
-        <v>565.6855987283466</v>
+        <v>565.6855987283429</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>255.0853779233025</v>
+        <v>255.0853779233021</v>
       </c>
       <c r="K4" t="n">
-        <v>8.628502078203837</v>
+        <v>8.628502078204065</v>
       </c>
       <c r="L4" t="n">
-        <v>343.3088093697962</v>
+        <v>343.3088093697993</v>
       </c>
       <c r="M4" t="n">
-        <v>565.6855987283466</v>
+        <v>565.6855987283429</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.928971599392492e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>8.628502078203894</v>
       </c>
       <c r="L4" t="n">
-        <v>343.3088093697962</v>
+        <v>343.3088093697993</v>
       </c>
       <c r="M4" t="n">
-        <v>565.6855987283466</v>
+        <v>565.6855987283429</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>33.91384097191519</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>116.0160676928852</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27455,22 +27455,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>111.7741729516953</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0669836643703</v>
+        <v>37.14609736560709</v>
       </c>
       <c r="H3" t="n">
         <v>99.90681807664345</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183509</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.9721212459916</v>
@@ -27512,16 +27512,16 @@
         <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8573996139459</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27552,10 +27552,10 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
         <v>205.3658819001186</v>
@@ -27591,19 +27591,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>109.7927239309421</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695014</v>
+        <v>140.1382145298789</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>152.4884436845404</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27749,10 +27749,10 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>39.06360943114908</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>98.38491328483634</v>
       </c>
     </row>
     <row r="7">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>96.55471014836684</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27789,13 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27828,7 +27828,7 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>30.29003566524506</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27856,22 +27856,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>336.8724762502637</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>69.95458801850521</v>
+        <v>69.95458801850484</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>125.9611458040277</v>
       </c>
       <c r="T8" t="n">
         <v>207.140152850729</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>186.0845040279627</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27947,10 +27947,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>93.40050789710141</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>22.25119676410756</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,10 +27980,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>18.58788196855024</v>
       </c>
       <c r="T9" t="n">
-        <v>134.2395866297708</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>116.5920096629616</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3559876391771</v>
+        <v>66.10525698353631</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>106.2818148601347</v>
+        <v>106.2818148601345</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>103.7782182538342</v>
+        <v>103.778218253834</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.9597157186236</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2298479899846</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.928971599392492e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>5.928971599392492e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>5.928971599392492e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>5.928971599392492e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>5.928971599392492e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.928971599392492e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.928971599392492e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>5.928971599392492e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>5.928971599392492e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>5.928971599392492e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>5.928971599392492e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-3.348081657766391e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>5.928971599392492e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.928971599392492e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28281,7 +28281,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>7.762216012809272e-12</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -29041,7 +29041,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="27">
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>-6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30709,7 +30709,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.644933572450569</v>
+        <v>3.644933572450579</v>
       </c>
       <c r="H8" t="n">
-        <v>37.3286759488594</v>
+        <v>37.32867594885951</v>
       </c>
       <c r="I8" t="n">
-        <v>140.5213015519007</v>
+        <v>140.5213015519011</v>
       </c>
       <c r="J8" t="n">
-        <v>309.3591807947768</v>
+        <v>309.3591807947776</v>
       </c>
       <c r="K8" t="n">
-        <v>463.6492189166095</v>
+        <v>463.6492189166107</v>
       </c>
       <c r="L8" t="n">
-        <v>575.1978547344937</v>
+        <v>575.1978547344953</v>
       </c>
       <c r="M8" t="n">
-        <v>640.0184421535614</v>
+        <v>640.0184421535632</v>
       </c>
       <c r="N8" t="n">
-        <v>650.3746096662867</v>
+        <v>650.3746096662885</v>
       </c>
       <c r="O8" t="n">
-        <v>614.1303014552313</v>
+        <v>614.1303014552331</v>
       </c>
       <c r="P8" t="n">
-        <v>524.1460038853578</v>
+        <v>524.1460038853593</v>
       </c>
       <c r="Q8" t="n">
-        <v>393.6118203219717</v>
+        <v>393.6118203219727</v>
       </c>
       <c r="R8" t="n">
-        <v>228.9610585204483</v>
+        <v>228.9610585204489</v>
       </c>
       <c r="S8" t="n">
-        <v>83.05892378221742</v>
+        <v>83.05892378221766</v>
       </c>
       <c r="T8" t="n">
-        <v>15.95569671340238</v>
+        <v>15.95569671340242</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2915946857960455</v>
+        <v>0.2915946857960462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.950211392089945</v>
+        <v>1.950211392089951</v>
       </c>
       <c r="H9" t="n">
-        <v>18.834936339395</v>
+        <v>18.83493633939505</v>
       </c>
       <c r="I9" t="n">
-        <v>67.14543608730733</v>
+        <v>67.14543608730752</v>
       </c>
       <c r="J9" t="n">
-        <v>184.2522087588137</v>
+        <v>184.2522087588142</v>
       </c>
       <c r="K9" t="n">
-        <v>314.91637202884</v>
+        <v>314.9163720288408</v>
       </c>
       <c r="L9" t="n">
-        <v>423.443925286898</v>
+        <v>423.4439252868992</v>
       </c>
       <c r="M9" t="n">
-        <v>494.1390882501584</v>
+        <v>494.1390882501598</v>
       </c>
       <c r="N9" t="n">
-        <v>507.2174795593933</v>
+        <v>507.2174795593946</v>
       </c>
       <c r="O9" t="n">
-        <v>464.0049008188739</v>
+        <v>464.0049008188752</v>
       </c>
       <c r="P9" t="n">
-        <v>372.4048403018072</v>
+        <v>372.4048403018082</v>
       </c>
       <c r="Q9" t="n">
-        <v>248.9427734885341</v>
+        <v>248.9427734885348</v>
       </c>
       <c r="R9" t="n">
-        <v>121.0841774843214</v>
+        <v>121.0841774843217</v>
       </c>
       <c r="S9" t="n">
-        <v>36.22432125219699</v>
+        <v>36.22432125219709</v>
       </c>
       <c r="T9" t="n">
-        <v>7.860720479520434</v>
+        <v>7.860720479520456</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1283033810585491</v>
+        <v>0.1283033810585494</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.634991719281619</v>
+        <v>1.634991719281623</v>
       </c>
       <c r="H10" t="n">
-        <v>14.53656274052204</v>
+        <v>14.53656274052208</v>
       </c>
       <c r="I10" t="n">
-        <v>49.16866006712361</v>
+        <v>49.16866006712375</v>
       </c>
       <c r="J10" t="n">
-        <v>115.5939145532105</v>
+        <v>115.5939145532108</v>
       </c>
       <c r="K10" t="n">
-        <v>189.9563106583553</v>
+        <v>189.9563106583558</v>
       </c>
       <c r="L10" t="n">
-        <v>243.0786779739236</v>
+        <v>243.0786779739243</v>
       </c>
       <c r="M10" t="n">
-        <v>256.2923837779359</v>
+        <v>256.2923837779367</v>
       </c>
       <c r="N10" t="n">
-        <v>250.198323733341</v>
+        <v>250.1983237333417</v>
       </c>
       <c r="O10" t="n">
-        <v>231.0986477399148</v>
+        <v>231.0986477399154</v>
       </c>
       <c r="P10" t="n">
-        <v>197.7448166665696</v>
+        <v>197.7448166665701</v>
       </c>
       <c r="Q10" t="n">
-        <v>136.908261148209</v>
+        <v>136.9082611482094</v>
       </c>
       <c r="R10" t="n">
-        <v>73.51517312333533</v>
+        <v>73.51517312333553</v>
       </c>
       <c r="S10" t="n">
-        <v>28.4934465987533</v>
+        <v>28.49344659875338</v>
       </c>
       <c r="T10" t="n">
-        <v>6.985873709657825</v>
+        <v>6.985873709657844</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08918136650627023</v>
+        <v>0.08918136650627048</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>677.7372574190224</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>416.4300581532619</v>
+        <v>169.2687847673337</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>169.2687847673334</v>
+        <v>491.1355220041058</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>491.1355220041054</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>491.1355220041054</v>
+        <v>726.7533607666135</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>225.4828684302377</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>446.012731199064</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,19 +33737,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.544175081759</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,19 +34211,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34366,34 +34366,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>233.9389431948329</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>81.94118660406885</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K2" t="n">
         <v>83.39712583292157</v>
       </c>
       <c r="L2" t="n">
-        <v>140.7360160012659</v>
+        <v>201.2284652382808</v>
       </c>
       <c r="M2" t="n">
         <v>188.5852654802098</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>75.43840481763047</v>
@@ -35030,7 +35030,7 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250133</v>
       </c>
       <c r="Q6" t="n">
         <v>28.61687799649638</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>128.3132762680905</v>
+        <v>128.3132762680913</v>
       </c>
       <c r="K8" t="n">
-        <v>243.5593678716289</v>
+        <v>243.5593678716302</v>
       </c>
       <c r="L8" t="n">
-        <v>339.4314397645065</v>
+        <v>339.4314397645081</v>
       </c>
       <c r="M8" t="n">
-        <v>409.6722089262887</v>
+        <v>409.6722089262905</v>
       </c>
       <c r="N8" t="n">
-        <v>420.9615460696958</v>
+        <v>420.9615460696976</v>
       </c>
       <c r="O8" t="n">
-        <v>384.0320900335446</v>
+        <v>384.0320900335463</v>
       </c>
       <c r="P8" t="n">
-        <v>292.9130081300883</v>
+        <v>292.9130081300897</v>
       </c>
       <c r="Q8" t="n">
-        <v>171.3061304475222</v>
+        <v>171.3061304475233</v>
       </c>
       <c r="R8" t="n">
-        <v>13.37552070631614</v>
+        <v>13.37552070631676</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>57.41458209214696</v>
+        <v>57.41458209214747</v>
       </c>
       <c r="K9" t="n">
-        <v>441.5401700670596</v>
+        <v>177.0749330544818</v>
       </c>
       <c r="L9" t="n">
-        <v>284.8895455070238</v>
+        <v>284.889545507025</v>
       </c>
       <c r="M9" t="n">
-        <v>352.0050543281401</v>
+        <v>607.0226893713054</v>
       </c>
       <c r="N9" t="n">
-        <v>375.87576747606</v>
+        <v>587.4364061966339</v>
       </c>
       <c r="O9" t="n">
-        <v>321.4086563744295</v>
+        <v>321.4086563744307</v>
       </c>
       <c r="P9" t="n">
-        <v>440.5434696386311</v>
+        <v>238.430432887478</v>
       </c>
       <c r="Q9" t="n">
-        <v>108.9609994025126</v>
+        <v>108.9609994025132</v>
       </c>
       <c r="R9" t="n">
-        <v>20.92634333167824</v>
+        <v>20.92634333167858</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>22.23473443653768</v>
+        <v>22.23473443653801</v>
       </c>
       <c r="K10" t="n">
-        <v>167.6868188324725</v>
+        <v>167.686818832473</v>
       </c>
       <c r="L10" t="n">
-        <v>270.6687032342398</v>
+        <v>270.6687032342405</v>
       </c>
       <c r="M10" t="n">
-        <v>295.8762607397765</v>
+        <v>295.8762607397773</v>
       </c>
       <c r="N10" t="n">
-        <v>294.3304961125696</v>
+        <v>294.3304961125703</v>
       </c>
       <c r="O10" t="n">
-        <v>255.6837756539544</v>
+        <v>255.6837756539551</v>
       </c>
       <c r="P10" t="n">
-        <v>195.0233759314631</v>
+        <v>195.0233759314636</v>
       </c>
       <c r="Q10" t="n">
-        <v>50.74621789651466</v>
+        <v>50.74621789651503</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>535.141012974578</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899152</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>274.2960242312436</v>
+        <v>27.13475084531539</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>27.13475084531504</v>
+        <v>349.0014880820875</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>349.0014880820871</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,22 +36440,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>349.0014880820871</v>
+        <v>584.6193268445951</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>303.8786972770457</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>82.88662398579324</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,22 +36914,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>303.8786972770457</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>303.8786972770457</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37227,19 +37227,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,16 +37388,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367785</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,16 +37862,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>91.80490927281453</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
         <v>397.5465471980852</v>
